--- a/docs/2程序设计/后台接口定义文档.xlsx
+++ b/docs/2程序设计/后台接口定义文档.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="预警TOP10" sheetId="1" r:id="rId2"/>
+    <sheet name="热点新闻" sheetId="4" r:id="rId3"/>
+    <sheet name="负面新闻" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="109">
   <si>
     <t>接口名</t>
   </si>
@@ -86,12 +88,6 @@
     <t>content</t>
   </si>
   <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>下拉详情</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -141,9 +137,6 @@
   </si>
   <si>
     <t>Map</t>
-  </si>
-  <si>
-    <t>公司详细信息</t>
   </si>
   <si>
     <t>标记出参</t>
@@ -203,6 +196,184 @@
   </si>
   <si>
     <t>map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负面新闻跟踪接口</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>当前页数,一页10条</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>List&lt;Object&gt;</t>
+  </si>
+  <si>
+    <t>相关公司id</t>
+  </si>
+  <si>
+    <t>相关公司</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>newsCode</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>重要度</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>cnn_score</t>
+  </si>
+  <si>
+    <t>selectDate</t>
+  </si>
+  <si>
+    <t>初始查询月份</t>
+  </si>
+  <si>
+    <t>mediaNm</t>
+  </si>
+  <si>
+    <t>新闻来源</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>件数</t>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lastingBondViolation/{page}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热点新闻趋势图</t>
+  </si>
+  <si>
+    <t>#urlregionRisk/newsChart/TendencyChartInData.Json</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>时间分类(1:日/2:月/3:季)</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>conent</t>
+  </si>
+  <si>
+    <t>totalCount</t>
+  </si>
+  <si>
+    <t>月新闻总量</t>
+  </si>
+  <si>
+    <t>negativeTotalCount</t>
+  </si>
+  <si>
+    <t>月负面新闻总量</t>
+  </si>
+  <si>
+    <t>totalRatio</t>
+  </si>
+  <si>
+    <t>月负面新闻占比</t>
+  </si>
+  <si>
+    <t>countDate</t>
+  </si>
+  <si>
+    <t>哪年哪月的数据</t>
+  </si>
+  <si>
+    <t>singleNews</t>
+  </si>
+  <si>
+    <t>新闻统计信息</t>
+  </si>
+  <si>
+    <t>newscount</t>
+  </si>
+  <si>
+    <t>每天的新闻量</t>
+  </si>
+  <si>
+    <t>negativeNewsCount</t>
+  </si>
+  <si>
+    <t>每天的负面新闻量</t>
+  </si>
+  <si>
+    <t>postDt</t>
+  </si>
+  <si>
+    <t>新闻日期</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>负面新闻占比</t>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;String,List&lt;String&gt;&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司公告详细信息下拉详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +381,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +393,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -264,8 +436,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +455,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,10 +526,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -363,6 +553,87 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -372,42 +643,37 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -722,23 +988,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="2" max="4" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -747,13 +1013,14 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -761,8 +1028,9 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -773,22 +1041,24 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -796,13 +1066,14 @@
         <v>4</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -811,8 +1082,9 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -821,487 +1093,1514 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="C16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="s">
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="H37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="I37" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="C16" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="14" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="11"/>
+      <c r="B38" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="11"/>
+      <c r="B39" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14" t="s">
+      <c r="G39" s="14"/>
+      <c r="H39" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="19"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="11"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A36:E36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="25"/>
+      <c r="B26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="25"/>
+      <c r="B27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A24:D24"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A6" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A9" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A10" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A12" s="17"/>
+      <c r="B12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A24" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A25" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A26" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A27" s="25"/>
+      <c r="B27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A28" s="25"/>
+      <c r="B28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A25:C25"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/2程序设计/后台接口定义文档.xlsx
+++ b/docs/2程序设计/后台接口定义文档.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>接口名</t>
   </si>
@@ -516,10 +516,13 @@
     <t>title</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>newsCode</t>
+    <t>plainText</t>
+  </si>
+  <si>
+    <t>cnn_score</t>
+  </si>
+  <si>
+    <t>relevance</t>
   </si>
   <si>
     <t>importance</t>
@@ -528,16 +531,7 @@
     <t>重要度</t>
   </si>
   <si>
-    <t>cnn_score</t>
-  </si>
-  <si>
-    <t>selectDate</t>
-  </si>
-  <si>
-    <t>初始查询月份</t>
-  </si>
-  <si>
-    <t>mediaNm</t>
+    <t>newsSource</t>
   </si>
   <si>
     <t>新闻来源</t>
@@ -554,12 +548,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,45 +597,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF008000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,6 +611,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -661,30 +619,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,7 +642,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -714,9 +664,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,35 +717,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -766,8 +744,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,7 +773,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,61 +875,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,43 +887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,19 +911,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,37 +953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,48 +1019,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1108,6 +1045,63 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1122,31 +1116,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,16 +1134,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1174,119 +1153,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1324,10 +1303,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1336,7 +1315,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1378,28 +1357,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1980,12 +1944,12 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="10"/>
@@ -2014,7 +1978,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="29"/>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="32" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="29"/>
@@ -2025,14 +1989,14 @@
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="29"/>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="29" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="12"/>
@@ -2041,14 +2005,14 @@
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="29" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="12"/>
@@ -2057,14 +2021,14 @@
       <c r="A20" s="29"/>
       <c r="B20" s="10"/>
       <c r="C20" s="29"/>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="29"/>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="29" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="12"/>
@@ -2073,14 +2037,14 @@
       <c r="A21" s="29"/>
       <c r="B21" s="10"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H21" s="12"/>
@@ -2089,14 +2053,14 @@
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="29"/>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="10" t="s">
         <v>38</v>
       </c>
       <c r="H22" s="12"/>
@@ -2105,14 +2069,14 @@
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="29"/>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="10" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="12"/>
@@ -2275,7 +2239,7 @@
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="1"/>
@@ -2299,7 +2263,7 @@
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="21"/>
@@ -2446,11 +2410,11 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="29"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="29"/>
@@ -2460,14 +2424,14 @@
     <row r="16" spans="1:7">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="29"/>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="29" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="12"/>
@@ -2475,14 +2439,14 @@
     <row r="17" spans="1:7">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="29"/>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="29" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="12"/>
@@ -2490,14 +2454,14 @@
     <row r="18" spans="1:7">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="29"/>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="29" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="12"/>
@@ -2505,14 +2469,14 @@
     <row r="19" spans="1:7">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="29"/>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="29" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="12"/>
@@ -2520,14 +2484,14 @@
     <row r="20" spans="1:7">
       <c r="A20" s="10"/>
       <c r="B20" s="29"/>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="29"/>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="12"/>
@@ -2535,14 +2499,14 @@
     <row r="21" spans="1:7">
       <c r="A21" s="10"/>
       <c r="B21" s="29"/>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="29"/>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="10" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="12"/>
@@ -2881,7 +2845,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="32"/>
@@ -3147,21 +3111,21 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="29"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="29"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
     </row>
@@ -4227,7 +4191,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="A1:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4508,7 +4472,7 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="10" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>13</v>
@@ -4521,7 +4485,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>13</v>
@@ -4534,14 +4498,14 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G22" s="12"/>
     </row>
@@ -4562,7 +4526,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>13</v>
@@ -4587,14 +4551,12 @@
       <c r="G25" s="12"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="12" spans="1:7">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
         <v>135</v>
@@ -4603,65 +4565,61 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="12" spans="1:7">
       <c r="A27" s="10" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
-        <v>137</v>
-      </c>
+      <c r="F27" s="10"/>
       <c r="G27" s="12"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="12" spans="1:7">
       <c r="A28" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="12" spans="1:7">
-      <c r="A29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="8"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>11</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="12" spans="1:7">
       <c r="A30" s="12"/>
       <c r="B30" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="16" t="s">
-        <v>46</v>
-      </c>
+      <c r="F30" s="16"/>
       <c r="G30" s="10"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="12" spans="1:7">
       <c r="A31" s="12"/>
-      <c r="B31" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="B31" s="16"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -4670,14 +4628,6 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="12"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/docs/2程序设计/后台接口定义文档.xlsx
+++ b/docs/2程序设计/后台接口定义文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="6"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -402,7 +402,7 @@
     <t>热点新闻趋势图(查询当天信息)</t>
   </si>
   <si>
-    <t>#urlregionRisk/newsChartByDate/TendencyChartInData.Json</t>
+    <t>#urlregionRisk/newsChartByDate</t>
   </si>
   <si>
     <t>POST</t>
@@ -444,7 +444,7 @@
     <t>热点新闻趋势图</t>
   </si>
   <si>
-    <t>#urlregionRisk/newsChart/TendencyChartInData.Json</t>
+    <t>#urlregionRisk/newsChart</t>
   </si>
   <si>
     <t>时间分类(1:日/2:月/3:季)</t>
@@ -548,10 +548,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -598,14 +598,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,8 +620,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,22 +658,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,10 +672,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,8 +702,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,25 +719,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -773,7 +773,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +815,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +833,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,25 +875,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,7 +905,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,103 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,6 +1019,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1036,6 +1045,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1045,26 +1063,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,20 +1087,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,10 +1122,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,16 +1134,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1153,115 +1153,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3231,8 +3231,8 @@
   <sheetPr/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3391,7 +3391,9 @@
       <c r="M8" s="22"/>
     </row>
     <row r="9" s="18" customFormat="1" spans="1:13">
-      <c r="A9" s="29"/>
+      <c r="A9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
@@ -3482,7 +3484,9 @@
         <v>94</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="30"/>
+      <c r="F13" s="30" t="s">
+        <v>45</v>
+      </c>
       <c r="G13" s="10" t="s">
         <v>95</v>
       </c>
@@ -3501,7 +3505,9 @@
         <v>96</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="30"/>
+      <c r="F14" s="30" t="s">
+        <v>45</v>
+      </c>
       <c r="G14" s="10" t="s">
         <v>97</v>
       </c>
@@ -3520,7 +3526,9 @@
         <v>98</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="30"/>
+      <c r="F15" s="30" t="s">
+        <v>13</v>
+      </c>
       <c r="G15" s="10" t="s">
         <v>99</v>
       </c>
@@ -3539,7 +3547,9 @@
         <v>100</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="30"/>
+      <c r="F16" s="30" t="s">
+        <v>13</v>
+      </c>
       <c r="G16" s="10" t="s">
         <v>101</v>
       </c>
@@ -3644,7 +3654,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3931,7 +3941,9 @@
         <v>107</v>
       </c>
       <c r="D15" s="30"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="F15" s="30"/>
       <c r="G15" s="10" t="s">
         <v>108</v>
@@ -3950,7 +3962,9 @@
         <v>109</v>
       </c>
       <c r="D16" s="30"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="F16" s="30"/>
       <c r="G16" s="10" t="s">
         <v>110</v>
@@ -3969,7 +3983,9 @@
         <v>111</v>
       </c>
       <c r="D17" s="30"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" s="30"/>
       <c r="G17" s="10" t="s">
         <v>112</v>
@@ -3988,7 +4004,9 @@
         <v>113</v>
       </c>
       <c r="D18" s="30"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="F18" s="30"/>
       <c r="G18" s="10" t="s">
         <v>114</v>
@@ -4028,7 +4046,9 @@
       <c r="D20" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="F20" s="30"/>
       <c r="G20" s="10" t="s">
         <v>95</v>
@@ -4047,7 +4067,9 @@
       <c r="D21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="F21" s="30"/>
       <c r="G21" s="10" t="s">
         <v>97</v>
@@ -4066,7 +4088,9 @@
       <c r="D22" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" s="30"/>
       <c r="G22" s="10" t="s">
         <v>99</v>
@@ -4085,7 +4109,9 @@
       <c r="D23" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="F23" s="30"/>
       <c r="G23" s="10" t="s">
         <v>101</v>
@@ -4190,8 +4216,8 @@
   <sheetPr/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/docs/2程序设计/后台接口定义文档.xlsx
+++ b/docs/2程序设计/后台接口定义文档.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\lfs\docs\2程序设计\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="147">
   <si>
     <t>接口名</t>
   </si>
@@ -260,9 +265,6 @@
     <t>预警总榜TOP10</t>
   </si>
   <si>
-    <t>/regionRisk/warningTop/{userId}/{year}</t>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
@@ -542,18 +544,98 @@
   <si>
     <t>件数</t>
   </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/regionRisk/warningTop</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarningRiskInData</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageCount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ount</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据总条数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>单页数据量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,142 +679,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -751,8 +697,30 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,194 +739,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1018,254 +800,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1282,7 +825,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1333,18 +876,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1363,65 +894,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1708,35 +1223,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="3" width="21.875" customWidth="1"/>
@@ -1746,7 +1258,7 @@
     <col min="7" max="7" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1756,7 +1268,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1282,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -1782,7 +1294,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -1796,7 +1308,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1810,7 +1322,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1820,7 +1332,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1830,135 +1342,135 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="25" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="25" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="26" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="28" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="10"/>
@@ -1971,179 +1483,179 @@
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="32" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="32" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="29"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="25"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29" t="s">
+      <c r="F20" s="25"/>
+      <c r="G20" s="25" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="29"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="25"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="25" t="s">
         <v>36</v>
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="10" t="s">
         <v>38</v>
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="10" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="10"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="10"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="10"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="23" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="26" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="16" t="s">
         <v>43</v>
@@ -2157,7 +1669,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="16" t="s">
         <v>44</v>
@@ -2173,7 +1685,7 @@
       </c>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -2183,7 +1695,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -2195,29 +1707,28 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="3" width="21.875" customWidth="1"/>
@@ -2226,7 +1737,7 @@
     <col min="6" max="6" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2235,7 +1746,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +1759,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -2259,7 +1770,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2272,7 +1783,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2285,7 +1796,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2294,7 +1805,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2303,272 +1814,256 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>13</v>
-      </c>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="23" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="26" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="28" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="29"/>
-      <c r="B15" s="32" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="10" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="10"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="10"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="10"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="26" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="16" t="s">
         <v>43</v>
@@ -2581,7 +2076,7 @@
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="16" t="s">
         <v>44</v>
@@ -2596,7 +2091,7 @@
       </c>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -2605,7 +2100,7 @@
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -2616,30 +2111,29 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="3" width="21.875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="25.25" customWidth="1"/>
@@ -2647,7 +2141,7 @@
     <col min="7" max="7" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2657,7 +2151,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -2671,7 +2165,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -2683,12 +2177,12 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="1"/>
@@ -2697,12 +2191,12 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="1"/>
@@ -2711,7 +2205,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2721,7 +2215,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2731,511 +2225,570 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="25" t="s">
         <v>55</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="29" t="s">
-        <v>58</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="26" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="8" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="10" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="32" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="10"/>
-      <c r="B15" s="32" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="32" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29" t="s">
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29" t="s">
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29" t="s">
+      <c r="F22" s="25"/>
+      <c r="G22" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29" t="s">
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29" t="s">
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="10"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="10"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="10"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="10"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="10"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="10"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="10"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="25"/>
       <c r="G27" s="10"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="29"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="25"/>
       <c r="G28" s="10"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="10"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="10"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="10"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29" t="s">
+      <c r="F36" s="25"/>
+      <c r="G36" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="29"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="29"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="29"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="23" t="s">
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="26" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="8" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="G40" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="12"/>
-      <c r="B37" s="16" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="12"/>
+      <c r="B41" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16" t="s">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="12"/>
-      <c r="B38" s="16" t="s">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="12"/>
+      <c r="B42" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16" t="s">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16" t="s">
+      <c r="F42" s="16"/>
+      <c r="G42" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="12"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="12"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A39:D39"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="3" width="21.125" customWidth="1"/>
@@ -3246,12 +2799,12 @@
     <col min="8" max="8" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3265,7 +2818,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" s="18" customFormat="1" spans="1:13">
+    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -3282,12 +2835,12 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" s="18" customFormat="1" spans="1:13">
+    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="1"/>
@@ -3301,12 +2854,12 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" s="18" customFormat="1" spans="1:13">
+    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="1"/>
@@ -3320,7 +2873,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" s="18" customFormat="1" spans="1:13">
+    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3335,7 +2888,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" s="18" customFormat="1" spans="1:13">
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3350,35 +2903,35 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" s="18" customFormat="1" spans="1:13">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" s="18" customFormat="1" spans="1:13">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -3390,21 +2943,21 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" s="18" customFormat="1" spans="1:13">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="29" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="1"/>
@@ -3413,19 +2966,19 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" s="18" customFormat="1" spans="1:13">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>93</v>
+    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="29" t="s">
-        <v>56</v>
+      <c r="G10" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="1"/>
@@ -3434,37 +2987,37 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" s="18" customFormat="1" spans="1:13">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="1"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" s="18" customFormat="1" spans="1:13">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -3476,19 +3029,19 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" s="18" customFormat="1" ht="14.1" customHeight="1" spans="1:13">
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="30"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="1"/>
@@ -3497,19 +3050,19 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" s="18" customFormat="1" spans="1:13">
+    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="30"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="1"/>
@@ -3518,19 +3071,19 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" s="18" customFormat="1" spans="1:13">
+    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="30"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="1"/>
@@ -3539,19 +3092,19 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" s="18" customFormat="1" spans="1:13">
+    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="30"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="1"/>
@@ -3560,13 +3113,13 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" s="18" customFormat="1" spans="1:13">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -3577,13 +3130,13 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" s="18" customFormat="1" spans="1:13">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="8" t="s">
         <v>8</v>
       </c>
@@ -3602,7 +3155,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" s="18" customFormat="1" spans="1:13">
+    <row r="19" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="16" t="s">
         <v>44</v>
@@ -3621,7 +3174,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" s="18" customFormat="1" spans="1:8">
+    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="16" t="s">
         <v>43</v>
@@ -3633,31 +3186,30 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" s="18" customFormat="1"/>
+    <row r="21" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="3" width="21.125" customWidth="1"/>
@@ -3668,12 +3220,12 @@
     <col min="8" max="8" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3687,7 +3239,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" s="18" customFormat="1" spans="1:13">
+    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -3704,12 +3256,12 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" s="18" customFormat="1" spans="1:13">
+    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="1"/>
@@ -3723,12 +3275,12 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" s="18" customFormat="1" spans="1:13">
+    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="1"/>
@@ -3742,7 +3294,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" s="18" customFormat="1" spans="1:13">
+    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3757,7 +3309,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" s="18" customFormat="1" spans="1:13">
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3772,35 +3324,35 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" s="18" customFormat="1" spans="1:13">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" s="18" customFormat="1" spans="1:13">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -3812,19 +3364,19 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" s="18" customFormat="1" spans="1:13">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="29" t="s">
+    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="1"/>
@@ -3833,19 +3385,19 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" s="18" customFormat="1" spans="1:13">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>93</v>
+    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="29" t="s">
-        <v>56</v>
+      <c r="G10" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="1"/>
@@ -3854,37 +3406,37 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" s="18" customFormat="1" spans="1:13">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="1"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" s="18" customFormat="1" spans="1:13">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -3896,7 +3448,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" s="18" customFormat="1" spans="1:13">
+    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
@@ -3915,15 +3467,15 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" s="18" customFormat="1" spans="1:13">
+    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -3934,19 +3486,19 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" s="18" customFormat="1" ht="14.1" customHeight="1" spans="1:13">
+    <row r="15" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="30"/>
+        <v>106</v>
+      </c>
+      <c r="D15" s="26"/>
       <c r="E15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="30"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="1"/>
@@ -3955,19 +3507,19 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" s="18" customFormat="1" ht="14.1" customHeight="1" spans="1:13">
+    <row r="16" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="30"/>
+        <v>108</v>
+      </c>
+      <c r="D16" s="26"/>
       <c r="E16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="1"/>
@@ -3976,19 +3528,19 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" s="18" customFormat="1" ht="14.1" customHeight="1" spans="1:13">
+    <row r="17" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="30"/>
+        <v>110</v>
+      </c>
+      <c r="D17" s="26"/>
       <c r="E17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="1"/>
@@ -3997,19 +3549,19 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" s="18" customFormat="1" ht="14.1" customHeight="1" spans="1:13">
+    <row r="18" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="30"/>
+        <v>112</v>
+      </c>
+      <c r="D18" s="26"/>
       <c r="E18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="30"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="1"/>
@@ -4018,19 +3570,19 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" s="18" customFormat="1" ht="14.1" customHeight="1" spans="1:13">
+    <row r="19" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="1"/>
@@ -4039,19 +3591,19 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" s="18" customFormat="1" ht="14.1" customHeight="1" spans="1:13">
+    <row r="20" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="30"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="30"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="1"/>
@@ -4060,19 +3612,19 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" s="18" customFormat="1" spans="1:13">
+    <row r="21" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="30"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="30"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="1"/>
@@ -4081,19 +3633,19 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" s="18" customFormat="1" spans="1:13">
+    <row r="22" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="30"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="1"/>
@@ -4102,19 +3654,19 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" s="18" customFormat="1" spans="1:13">
+    <row r="23" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="30"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="30"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="1"/>
@@ -4123,13 +3675,13 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" s="18" customFormat="1" spans="1:13">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -4140,13 +3692,13 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" s="18" customFormat="1" spans="1:13">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="8" t="s">
         <v>8</v>
       </c>
@@ -4165,7 +3717,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" s="18" customFormat="1" spans="1:13">
+    <row r="26" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
       <c r="B26" s="16" t="s">
         <v>44</v>
@@ -4184,7 +3736,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" s="18" customFormat="1" spans="1:8">
+    <row r="27" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="16" t="s">
         <v>43</v>
@@ -4196,31 +3748,30 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" s="18" customFormat="1"/>
+    <row r="28" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A25:D25"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
@@ -4229,12 +3780,12 @@
     <col min="6" max="6" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4242,7 +3793,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12.75" spans="1:7">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4253,12 +3804,12 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4266,12 +3817,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -4279,7 +3830,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4288,7 +3839,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="12" spans="1:12">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -4303,7 +3854,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="12" spans="1:12">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -4326,16 +3877,16 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="12" spans="1:12">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="12"/>
       <c r="I8" s="17"/>
@@ -4343,10 +3894,10 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="12" spans="1:12">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -4358,7 +3909,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="12" spans="1:12">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="13" t="s">
         <v>12</v>
@@ -4373,12 +3924,12 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="12" spans="1:12">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -4393,7 +3944,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -4412,9 +3963,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4425,54 +3976,54 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -4481,11 +4032,11 @@
       <c r="F18" s="10"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>13</v>
@@ -4494,11 +4045,11 @@
       <c r="F19" s="10"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>13</v>
@@ -4507,11 +4058,11 @@
       <c r="F20" s="10"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>13</v>
@@ -4520,22 +4071,22 @@
       <c r="F21" s="10"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="10" t="s">
@@ -4548,11 +4099,11 @@
       <c r="F23" s="10"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>13</v>
@@ -4561,35 +4112,35 @@
       <c r="F24" s="10"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="12" spans="1:7">
-      <c r="A26" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>41</v>
       </c>
@@ -4600,7 +4151,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
@@ -4619,7 +4170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>44</v>
@@ -4632,7 +4183,7 @@
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="16" t="s">
         <v>43</v>
@@ -4643,7 +4194,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="B31" s="16"/>
       <c r="C31" s="10"/>
@@ -4652,9 +4203,9 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="12"/>
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/2程序设计/后台接口定义文档.xlsx
+++ b/docs/2程序设计/后台接口定义文档.xlsx
@@ -93,9 +93,6 @@
     <t>Map</t>
   </si>
   <si>
-    <t>warningRiskOutDataList</t>
-  </si>
-  <si>
     <t>List&lt;WarningRiskOutData&gt;</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>年份日期（YYYY）</t>
-  </si>
-  <si>
-    <t>warningRiskInfoDataList</t>
   </si>
   <si>
     <t>List&lt;WarningRiskInfoData&gt;</t>
@@ -236,9 +230,6 @@
     </r>
   </si>
   <si>
-    <t>warningRiskInfoData</t>
-  </si>
-  <si>
     <t>WarningRiskInfoData</t>
   </si>
   <si>
@@ -283,29 +274,6 @@
     <t>map</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>creditWarningInfoData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>List</t>
-    </r>
-  </si>
-  <si>
-    <t>List&lt;CreditWarningInfoData&gt;</t>
-  </si>
-  <si>
     <t>companyId</t>
   </si>
   <si>
@@ -546,22 +514,22 @@
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>/regionRisk/warningTop</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>WarningRiskInData</t>
   </si>
   <si>
     <t>pageSize</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>pageCount</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -578,7 +546,7 @@
       </rPr>
       <t>ount</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -595,15 +563,15 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>数据总条数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -620,15 +588,35 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>页码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>单页数据量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>warningRiskOutDataList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>warningRiskInfoDataList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthData</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>warningDataList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;WarningInfoData&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -679,12 +667,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -718,6 +700,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -808,7 +797,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -894,6 +883,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -903,26 +907,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -985,7 +980,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,7 +1015,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1235,7 +1230,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1245,7 +1240,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1343,16 +1338,16 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="32"/>
@@ -1409,16 +1404,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
@@ -1456,13 +1451,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="28" t="s">
-        <v>22</v>
+      <c r="B15" s="39" t="s">
+        <v>142</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1471,7 +1466,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="C16" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
@@ -1479,19 +1474,19 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="28" t="s">
-        <v>26</v>
+      <c r="C17" s="39" t="s">
+        <v>143</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
@@ -1502,14 +1497,14 @@
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="12"/>
     </row>
@@ -1518,14 +1513,14 @@
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19" s="12"/>
     </row>
@@ -1534,14 +1529,14 @@
       <c r="B20" s="10"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H20" s="12"/>
     </row>
@@ -1550,14 +1545,14 @@
       <c r="B21" s="10"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -1566,14 +1561,14 @@
       <c r="B22" s="10"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H22" s="12"/>
     </row>
@@ -1582,14 +1577,14 @@
       <c r="B23" s="10"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H23" s="12"/>
     </row>
@@ -1624,12 +1619,12 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="A27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="8"/>
@@ -1637,7 +1632,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1658,7 +1653,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -1672,16 +1667,16 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H30" s="16"/>
     </row>
@@ -1714,9 +1709,9 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A27:D27"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1725,7 +1720,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:G11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1751,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1775,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="1"/>
@@ -1815,15 +1810,15 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="32"/>
@@ -1861,15 +1856,15 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
@@ -1905,12 +1900,12 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
-      <c r="B15" s="28" t="s">
-        <v>49</v>
+      <c r="B15" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
@@ -1920,14 +1915,14 @@
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G16" s="12"/>
     </row>
@@ -1935,14 +1930,14 @@
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" s="12"/>
     </row>
@@ -1950,14 +1945,14 @@
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" s="12"/>
     </row>
@@ -1965,14 +1960,14 @@
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="12"/>
     </row>
@@ -1980,14 +1975,14 @@
       <c r="A20" s="10"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" s="12"/>
     </row>
@@ -1995,14 +1990,14 @@
       <c r="A21" s="10"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G21" s="12"/>
     </row>
@@ -2034,11 +2029,11 @@
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="A25" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="8"/>
@@ -2046,7 +2041,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -2066,7 +2061,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
@@ -2079,15 +2074,15 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G28" s="16"/>
     </row>
@@ -2118,7 +2113,7 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A25:C25"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2128,7 +2123,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2156,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2182,7 +2177,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="1"/>
@@ -2196,7 +2191,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="1"/>
@@ -2226,16 +2221,16 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="32"/>
@@ -2256,14 +2251,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
-        <v>137</v>
+      <c r="A10" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="36" t="s">
-        <v>137</v>
+      <c r="E10" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="25"/>
@@ -2274,14 +2269,14 @@
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>15</v>
@@ -2292,14 +2287,14 @@
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -2307,15 +2302,15 @@
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="38" t="s">
-        <v>143</v>
-      </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="37" t="s">
-        <v>145</v>
+      <c r="G13" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2323,15 +2318,15 @@
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="38" t="s">
-        <v>144</v>
-      </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="37" t="s">
-        <v>146</v>
+      <c r="G14" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -2346,16 +2341,16 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
@@ -2385,7 +2380,7 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -2393,13 +2388,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="28" t="s">
-        <v>59</v>
+      <c r="B19" s="40" t="s">
+        <v>145</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="28" t="s">
-        <v>60</v>
+      <c r="E19" s="39" t="s">
+        <v>146</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -2409,7 +2404,7 @@
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25" t="s">
@@ -2417,7 +2412,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H20" s="12"/>
     </row>
@@ -2425,7 +2420,7 @@
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25" t="s">
@@ -2433,7 +2428,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -2441,7 +2436,7 @@
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25" t="s">
@@ -2449,7 +2444,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H22" s="12"/>
     </row>
@@ -2457,7 +2452,7 @@
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25" t="s">
@@ -2471,7 +2466,7 @@
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25" t="s">
@@ -2485,7 +2480,7 @@
       <c r="A25" s="10"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25" t="s">
@@ -2499,15 +2494,15 @@
       <c r="A26" s="10"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H26" s="12"/>
     </row>
@@ -2515,11 +2510,11 @@
       <c r="A27" s="10"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="10"/>
@@ -2529,11 +2524,11 @@
       <c r="A28" s="10"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="10"/>
@@ -2543,11 +2538,11 @@
       <c r="A29" s="10"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="10"/>
@@ -2557,11 +2552,11 @@
       <c r="A30" s="10"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="10"/>
@@ -2571,7 +2566,7 @@
       <c r="A31" s="10"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25" t="s">
@@ -2585,7 +2580,7 @@
       <c r="A32" s="10"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25" t="s">
@@ -2599,15 +2594,15 @@
       <c r="A33" s="10"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F33" s="25"/>
       <c r="G33" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H33" s="12"/>
     </row>
@@ -2615,7 +2610,7 @@
       <c r="A34" s="10"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25" t="s">
@@ -2623,7 +2618,7 @@
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H34" s="12"/>
     </row>
@@ -2631,7 +2626,7 @@
       <c r="A35" s="10"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="25" t="s">
@@ -2645,31 +2640,31 @@
       <c r="A36" s="10"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="38" t="s">
-        <v>140</v>
+      <c r="A37" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="38" t="s">
-        <v>141</v>
+      <c r="E37" s="31" t="s">
+        <v>136</v>
       </c>
       <c r="F37" s="10"/>
-      <c r="G37" s="38" t="s">
-        <v>142</v>
+      <c r="G37" s="31" t="s">
+        <v>137</v>
       </c>
       <c r="H37" s="10"/>
     </row>
@@ -2684,12 +2679,12 @@
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+      <c r="A39" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
       <c r="G39" s="8"/>
@@ -2697,7 +2692,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -2718,7 +2713,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -2732,16 +2727,16 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H42" s="16"/>
     </row>
@@ -2774,7 +2769,7 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A39:D39"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2804,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2840,7 +2835,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="1"/>
@@ -2859,7 +2854,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="1"/>
@@ -2904,16 +2899,16 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="1"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -2950,14 +2945,14 @@
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="1"/>
@@ -2971,14 +2966,14 @@
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="1"/>
@@ -2988,16 +2983,16 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="1"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -3034,14 +3029,14 @@
       <c r="B13" s="10"/>
       <c r="C13" s="26"/>
       <c r="D13" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="1"/>
@@ -3055,14 +3050,14 @@
       <c r="B14" s="10"/>
       <c r="C14" s="26"/>
       <c r="D14" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="1"/>
@@ -3076,14 +3071,14 @@
       <c r="B15" s="10"/>
       <c r="C15" s="26"/>
       <c r="D15" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="1"/>
@@ -3097,14 +3092,14 @@
       <c r="B16" s="10"/>
       <c r="C16" s="26"/>
       <c r="D16" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="1"/>
@@ -3114,12 +3109,12 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="A17" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -3131,12 +3126,12 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+      <c r="A18" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="8" t="s">
         <v>8</v>
       </c>
@@ -3158,13 +3153,13 @@
     <row r="19" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -3177,7 +3172,7 @@
     <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -3196,7 +3191,7 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A17:D17"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3225,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3261,7 +3256,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="1"/>
@@ -3280,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="1"/>
@@ -3325,16 +3320,16 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="1"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -3369,14 +3364,14 @@
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="1"/>
@@ -3390,14 +3385,14 @@
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="1"/>
@@ -3407,16 +3402,16 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="1"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -3470,12 +3465,12 @@
     <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="26"/>
       <c r="E14" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -3490,15 +3485,15 @@
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="1"/>
@@ -3511,15 +3506,15 @@
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="1"/>
@@ -3532,7 +3527,7 @@
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="10" t="s">
@@ -3540,7 +3535,7 @@
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="1"/>
@@ -3553,7 +3548,7 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="10" t="s">
@@ -3561,7 +3556,7 @@
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="1"/>
@@ -3574,15 +3569,15 @@
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="1"/>
@@ -3596,14 +3591,14 @@
       <c r="B20" s="10"/>
       <c r="C20" s="26"/>
       <c r="D20" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="1"/>
@@ -3617,14 +3612,14 @@
       <c r="B21" s="10"/>
       <c r="C21" s="26"/>
       <c r="D21" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="1"/>
@@ -3638,14 +3633,14 @@
       <c r="B22" s="10"/>
       <c r="C22" s="26"/>
       <c r="D22" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="1"/>
@@ -3659,14 +3654,14 @@
       <c r="B23" s="10"/>
       <c r="C23" s="26"/>
       <c r="D23" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="1"/>
@@ -3676,12 +3671,12 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="A24" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -3693,12 +3688,12 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
+      <c r="A25" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="8" t="s">
         <v>8</v>
       </c>
@@ -3720,13 +3715,13 @@
     <row r="26" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
       <c r="B26" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -3739,7 +3734,7 @@
     <row r="27" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -3758,7 +3753,7 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A24:D24"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3785,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -3809,7 +3804,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3822,7 +3817,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -3880,13 +3875,13 @@
     <row r="8" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G8" s="12"/>
       <c r="I8" s="17"/>
@@ -3897,7 +3892,7 @@
     <row r="9" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -3965,7 +3960,7 @@
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3979,11 +3974,11 @@
     <row r="15" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -3993,14 +3988,14 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G16" s="12"/>
     </row>
@@ -4008,14 +4003,14 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G17" s="12"/>
     </row>
@@ -4023,7 +4018,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -4036,7 +4031,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>13</v>
@@ -4049,7 +4044,7 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>13</v>
@@ -4062,7 +4057,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>13</v>
@@ -4075,14 +4070,14 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G22" s="12"/>
     </row>
@@ -4090,7 +4085,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>13</v>
@@ -4103,7 +4098,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>13</v>
@@ -4116,33 +4111,33 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4153,7 +4148,7 @@
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -4173,20 +4168,20 @@
     <row r="29" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -4205,7 +4200,7 @@
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>